--- a/result_table_templates/PulseLong.xlsx
+++ b/result_table_templates/PulseLong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC6B1BA-991B-FA4A-B2B6-8A73D16CF31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6DE043-DD7D-4041-94CB-F724F7474875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16660" yWindow="500" windowWidth="41120" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Field</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>weight of the fast exponent (remainder is the slow one)</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="261" zoomScaleNormal="261" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -541,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -552,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>

--- a/result_table_templates/PulseLong.xlsx
+++ b/result_table_templates/PulseLong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6DE043-DD7D-4041-94CB-F724F7474875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339162D0-39BC-DD44-B636-492BD8E597E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16660" yWindow="500" windowWidth="41120" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Field</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>vrest_mean</t>
+  </si>
+  <si>
+    <t>mean resting potential (mV) for each current injection value</t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="261" zoomScaleNormal="261" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,6 +765,17 @@
         <v>41</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
